--- a/data/case1/5/Q2_6.xlsx
+++ b/data/case1/5/Q2_6.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.11557672930211993</v>
+        <v>0.11652979150694165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999484894317</v>
+        <v>-0.0059999999473809851</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999597366553</v>
+        <v>-0.0039999999590349944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999999249249498</v>
+        <v>-0.0079999999234843244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999660290655</v>
+        <v>-0.0029999999653851361</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999721793671</v>
+        <v>-0.001999999971516786</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999999059328104</v>
+        <v>-0.0099999999038731247</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999999091981984</v>
+        <v>-0.0099999999071278545</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.061158997636447499</v>
+        <v>0.060325849235043361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999815532021</v>
+        <v>-0.0019999999806419311</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999729781734</v>
+        <v>-0.0029999999719061421</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.003499999968386458</v>
+        <v>-0.0034999999671785353</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999665519255</v>
+        <v>-0.0034999999652844949</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0079999999284412482</v>
+        <v>-0.0079999999264117605</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0076458542786985717</v>
+        <v>0.0076808235700971395</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999786328715</v>
+        <v>-0.0019999999775648369</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999778459454</v>
+        <v>-0.0019999999767401633</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999607234216</v>
+        <v>-0.0039999999592765789</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.016955655519655277</v>
+        <v>-0.017385368577039095</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999617723603</v>
+        <v>-0.0039999999610298431</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999613460346</v>
+        <v>-0.0039999999606132874</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999609818815</v>
+        <v>-0.0039999999602189362</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0049999999482697177</v>
+        <v>-0.0049999999473575585</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999816066705</v>
+        <v>-0.019999999812625013</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.01999999981337286</v>
+        <v>-0.019999999809908076</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999677621787</v>
+        <v>-0.002499999966982358</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999668482431</v>
+        <v>-0.0024999999660337835</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.038253074957403044</v>
+        <v>0.038465754808374442</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999999144672032</v>
+        <v>-0.0069999999127947632</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.04077635788606182</v>
+        <v>-0.040720968054665629</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999999068190988</v>
+        <v>-0.0069999999050125439</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998809519042</v>
+        <v>-0.0099999998786373112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999999314641599</v>
+        <v>-0.0039999999301283395</v>
       </c>
     </row>
   </sheetData>
